--- a/netcoreapp3.1/Datas/default.xlsx
+++ b/netcoreapp3.1/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>基本情報</t>
   </si>
@@ -192,12 +192,94 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>自分のいいきもちになる出来事</t>
+    <t>グループアクティビティ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>いいきもちになるできごと</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>「ちょっぴりうきうき」なできごと</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>自分がなったことのあるきもち</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
     </rPh>
-    <rPh sb="11" eb="14">
-      <t>デキゴト</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>いやなきもち</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>いいきもち</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>赤丸くん</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの大きさ</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>青助くん</t>
+    <rPh sb="0" eb="2">
+      <t>アオスケ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>キミちゃん</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>どんなとき？</t>
+  </si>
+  <si>
+    <t>どんなとき？</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>放課後に野球をするとき</t>
+    <rPh sb="0" eb="3">
+      <t>ホウカゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤキュウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>授業中に先生に指名されたとき</t>
+    <rPh sb="0" eb="3">
+      <t>ジュギョウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
     </rPh>
     <phoneticPr fontId="0"/>
   </si>
@@ -223,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -246,11 +328,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -259,11 +367,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +696,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -590,13 +726,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -822,12 +958,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="E4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="E8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="E10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="1"/>
+      <c r="I10"/>
+      <c r="K10" s="1"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="E11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11"/>
+      <c r="K11" s="1"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="E12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12"/>
+      <c r="K12" s="1"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="B4:B20"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -835,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F8"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -851,81 +1157,164 @@
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
       <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
       <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
       <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="H4:K13"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/netcoreapp3.1/Datas/default.xlsx
+++ b/netcoreapp3.1/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>基本情報</t>
   </si>
@@ -192,94 +192,12 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>グループアクティビティ</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>いいきもちになるできごと</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>「ちょっぴりうきうき」なできごと</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>自分がなったことのあるきもち</t>
+    <t>自分のいいきもちになる出来事</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
     </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>いやなきもち</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>いいきもち</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>赤丸くん</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>マル</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>きもちの種類</t>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>きもちの大きさ</t>
-    <rPh sb="4" eb="5">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>青助くん</t>
-    <rPh sb="0" eb="2">
-      <t>アオスケ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>キミちゃん</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>どんなとき？</t>
-  </si>
-  <si>
-    <t>どんなとき？</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>放課後に野球をするとき</t>
-    <rPh sb="0" eb="3">
-      <t>ホウカゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヤキュウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>授業中に先生に指名されたとき</t>
-    <rPh sb="0" eb="3">
-      <t>ジュギョウチュウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シメイ</t>
+    <rPh sb="11" eb="14">
+      <t>デキゴト</t>
     </rPh>
     <phoneticPr fontId="0"/>
   </si>
@@ -305,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -328,37 +246,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -367,39 +259,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,10 +560,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -726,13 +590,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -958,182 +822,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="E2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="E4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="E6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="E7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="E8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="E10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="1"/>
-      <c r="I10"/>
-      <c r="K10" s="1"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="E11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11"/>
-      <c r="K11" s="1"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="E12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12"/>
-      <c r="K12" s="1"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:A20"/>
-    <mergeCell ref="B4:B20"/>
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1141,10 +835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L13"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:K13"/>
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1157,164 +851,81 @@
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="6">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="H4:K13"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
